--- a/OKPlus/OK Components/User Security Roles/Matrix idea.xlsx
+++ b/OKPlus/OK Components/User Security Roles/Matrix idea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janitab/Documents/Git/pragma-design/OKPlus/OK Components/User Security Roles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1445EE1-CF51-1D4C-9D15-D647C76256E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E1C5A-0AE0-8346-9F0B-2C2DB22B73DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="460" windowWidth="28680" windowHeight="16540" xr2:uid="{D62ADB6B-3CEB-F24E-93EB-3A70E47CF1BE}"/>
+    <workbookView xWindow="29220" yWindow="460" windowWidth="20180" windowHeight="19820" xr2:uid="{D62ADB6B-3CEB-F24E-93EB-3A70E47CF1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Full name</t>
   </si>
@@ -44,30 +44,6 @@
     <t>Security Roles</t>
   </si>
   <si>
-    <t>SR 1</t>
-  </si>
-  <si>
-    <t>SR 2</t>
-  </si>
-  <si>
-    <t>SR 3</t>
-  </si>
-  <si>
-    <t>SR 4</t>
-  </si>
-  <si>
-    <t>SR 5</t>
-  </si>
-  <si>
-    <t>SR 6</t>
-  </si>
-  <si>
-    <t>SR 7</t>
-  </si>
-  <si>
-    <t>Permission Tree &gt;</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -77,55 +53,25 @@
     <t>ChangeActive</t>
   </si>
   <si>
-    <t>Display site here</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
     <t>Entity</t>
   </si>
   <si>
     <t>Permission Tree</t>
   </si>
   <si>
-    <t>Site 1</t>
-  </si>
-  <si>
-    <t>Site 2</t>
-  </si>
-  <si>
-    <t>Site 3</t>
-  </si>
-  <si>
-    <t>Site 4</t>
-  </si>
-  <si>
-    <t>Site 5</t>
-  </si>
-  <si>
-    <t>Site 6</t>
-  </si>
-  <si>
-    <t>Site 7</t>
-  </si>
-  <si>
-    <t>Display role here</t>
-  </si>
-  <si>
-    <t>Roles &gt;</t>
-  </si>
-  <si>
     <t>Custom Permissions</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Operator</t>
   </si>
 </sst>
 </file>
@@ -588,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366516C1-F007-D045-B6E4-3845F59A85B9}">
-  <dimension ref="A5:R30"/>
+  <dimension ref="A5:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
@@ -604,31 +550,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -636,181 +573,108 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="H7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
+      <c r="H8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
+      <c r="H15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
